--- a/biology/Zoologie/Arma_(hémiptère)/Arma_(hémiptère).xlsx
+++ b/biology/Zoologie/Arma_(hémiptère)/Arma_(hémiptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arma_(h%C3%A9mipt%C3%A8re)</t>
+          <t>Arma_(hémiptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arma est un genre d'insectes hémiptères du sous-ordre des hétéroptères (punaises) de la famille des Pentatomidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arma_(h%C3%A9mipt%C3%A8re)</t>
+          <t>Arma_(hémiptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Arma a été décrit pour la première fois par le zoologiste allemand Carl Wilhelm Hahn en 1832.
-Publication originale
-Publication originale : (de) Carl Wilhelm Hahn, Die wanzenartigen Insecten : Getreu nach der Natur abgebildet und beschrieben, vol. 1, Zeh´sche Buchhandlung (Nürnberg), 1832, 142 p. (lire en ligne), p. 91.
-Espèces rencontrées en Europe
-Arma custos (Fabricius, 1794)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arma_(hémiptère)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arma_(h%C3%A9mipt%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Publication originale : (de) Carl Wilhelm Hahn, Die wanzenartigen Insecten : Getreu nach der Natur abgebildet und beschrieben, vol. 1, Zeh´sche Buchhandlung (Nürnberg), 1832, 142 p. (lire en ligne), p. 91.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arma_(hémiptère)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arma_(h%C3%A9mipt%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arma custos (Fabricius, 1794)
 Arma insperata (Horváth, 1899)
 Sur les autres projets Wikimedia :
 Arma (hémiptère), sur Wikimedia Commons
